--- a/3_data_analysis/5_different_nmr_bucket/metabolite_markers.xlsx
+++ b/3_data_analysis/5_different_nmr_bucket/metabolite_markers.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">variable_id</t>
   </si>
@@ -35,16 +35,13 @@
     <t xml:space="preserve">4-hydroxyphenylacetate</t>
   </si>
   <si>
-    <t xml:space="preserve">b-glucose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">α-glucose</t>
+    <t xml:space="preserve">beta-glucose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha-glucose</t>
   </si>
   <si>
     <t xml:space="preserve">Ca-EDTA2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">un2</t>
   </si>
   <si>
     <t xml:space="preserve">asparagine</t>
@@ -119,8 +116,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D17" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:D17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D16" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:D16"/>
   <tableColumns count="4">
     <tableColumn id="1" name="variable_id"/>
     <tableColumn id="2" name="fc"/>
@@ -441,7 +438,7 @@
         <v>0.0000636918220338324</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000154147040513195</v>
+        <v>0.000137921036248648</v>
       </c>
     </row>
     <row r="3">
@@ -455,7 +452,7 @@
         <v>0.00222053099403232</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00383546262605582</v>
+        <v>0.00343172971804995</v>
       </c>
     </row>
     <row r="4">
@@ -469,7 +466,7 @@
         <v>0.0135741608777579</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0171939371118267</v>
+        <v>0.0164829096372775</v>
       </c>
     </row>
     <row r="5">
@@ -483,7 +480,7 @@
         <v>0.0000188193172101492</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0000595945044988059</v>
+        <v>0.0000533213987620895</v>
       </c>
     </row>
     <row r="6">
@@ -497,7 +494,7 @@
         <v>0.00000516443980764311</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0000197184369873109</v>
+        <v>0.0000176428120412782</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +508,7 @@
         <v>0.000728615431651765</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00138436932013835</v>
+        <v>0.001238646233808</v>
       </c>
     </row>
     <row r="8">
@@ -519,13 +516,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>0.92200797509767</v>
+        <v>0.93636093117034</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00704387804905896</v>
+        <v>0.00434905246335063</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00955954878086573</v>
+        <v>0.00592403907575925</v>
       </c>
     </row>
     <row r="9">
@@ -533,13 +530,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>0.93636093117034</v>
+        <v>1.10415737320082</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00434905246335063</v>
+        <v>0.0000649040170581872</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00662098484937798</v>
+        <v>0.000137921036248648</v>
       </c>
     </row>
     <row r="10">
@@ -547,13 +544,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>1.10415737320082</v>
+        <v>0.821840097148567</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0000649040170581872</v>
+        <v>0.000101251078570061</v>
       </c>
       <c r="D10" t="n">
-        <v>0.000154147040513195</v>
+        <v>0.000191252037299004</v>
       </c>
     </row>
     <row r="11">
@@ -561,13 +558,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>0.821840097148567</v>
+        <v>0.792819363037118</v>
       </c>
       <c r="C11" t="n">
-        <v>0.000101251078570061</v>
+        <v>0.0301501679409871</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00021375227698124</v>
+        <v>0.0341701903331187</v>
       </c>
     </row>
     <row r="12">
@@ -575,13 +572,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>0.792819363037118</v>
+        <v>0.796274310450983</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0301501679409871</v>
+        <v>0.000000141536439391122</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0358033244299222</v>
+        <v>0.00000165690944728446</v>
       </c>
     </row>
     <row r="13">
@@ -589,13 +586,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>0.796274310450983</v>
+        <v>0.907731786833182</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000000141536439391122</v>
+        <v>0.00453014752852178</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0000018518399704944</v>
+        <v>0.00592403907575925</v>
       </c>
     </row>
     <row r="14">
@@ -603,13 +600,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>0.907731786833182</v>
+        <v>0.849611800070102</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00453014752852178</v>
+        <v>0.00000518906236508181</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00662098484937798</v>
+        <v>0.0000176428120412782</v>
       </c>
     </row>
     <row r="15">
@@ -617,13 +614,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>0.849611800070102</v>
+        <v>0.780501386444024</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00000518906236508181</v>
+        <v>0.00000203891715599458</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0000197184369873109</v>
+        <v>0.0000115538638839693</v>
       </c>
     </row>
     <row r="16">
@@ -631,27 +628,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>0.780501386444024</v>
+        <v>0.742121459040302</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00000203891715599458</v>
+        <v>0.000000194930523209937</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0000129131419879657</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.742121459040302</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.000000194930523209937</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.0000018518399704944</v>
+        <v>0.00000165690944728446</v>
       </c>
     </row>
   </sheetData>

--- a/3_data_analysis/5_different_nmr_bucket/metabolite_markers.xlsx
+++ b/3_data_analysis/5_different_nmr_bucket/metabolite_markers.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">variable_id</t>
   </si>
@@ -41,13 +41,7 @@
     <t xml:space="preserve">alpha-glucose</t>
   </si>
   <si>
-    <t xml:space="preserve">Ca-EDTA2-</t>
-  </si>
-  <si>
     <t xml:space="preserve">asparagine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mg-EDTA2-</t>
   </si>
   <si>
     <t xml:space="preserve">glutamate</t>
@@ -116,8 +110,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D16" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:D16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D14" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:D14"/>
   <tableColumns count="4">
     <tableColumn id="1" name="variable_id"/>
     <tableColumn id="2" name="fc"/>
@@ -438,7 +432,7 @@
         <v>0.0000636918220338324</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000137921036248648</v>
+        <v>0.000136482475786784</v>
       </c>
     </row>
     <row r="3">
@@ -452,7 +446,7 @@
         <v>0.00222053099403232</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00343172971804995</v>
+        <v>0.00370088499005387</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +460,7 @@
         <v>0.0135741608777579</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0164829096372775</v>
+        <v>0.0169677010971974</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +474,7 @@
         <v>0.0000188193172101492</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0000533213987620895</v>
+        <v>0.0000470482930253731</v>
       </c>
     </row>
     <row r="6">
@@ -494,7 +488,7 @@
         <v>0.00000516443980764311</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0000176428120412782</v>
+        <v>0.0000155671870952454</v>
       </c>
     </row>
     <row r="7">
@@ -502,13 +496,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>0.96033019775728</v>
+        <v>0.93636093117034</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000728615431651765</v>
+        <v>0.00434905246335063</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001238646233808</v>
+        <v>0.00617747390252969</v>
       </c>
     </row>
     <row r="8">
@@ -516,13 +510,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>0.93636093117034</v>
+        <v>0.821840097148567</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00434905246335063</v>
+        <v>0.000101251078570061</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00592403907575925</v>
+        <v>0.000189845772318865</v>
       </c>
     </row>
     <row r="9">
@@ -530,13 +524,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>1.10415737320082</v>
+        <v>0.792819363037118</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0000649040170581872</v>
+        <v>0.0301501679409871</v>
       </c>
       <c r="D9" t="n">
-        <v>0.000137921036248648</v>
+        <v>0.0347886553165236</v>
       </c>
     </row>
     <row r="10">
@@ -544,13 +538,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>0.821840097148567</v>
+        <v>0.796274310450983</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000101251078570061</v>
+        <v>0.000000141536439391122</v>
       </c>
       <c r="D10" t="n">
-        <v>0.000191252037299004</v>
+        <v>0.00000146197892407453</v>
       </c>
     </row>
     <row r="11">
@@ -558,13 +552,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>0.792819363037118</v>
+        <v>0.907731786833182</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0301501679409871</v>
+        <v>0.00453014752852178</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0341701903331187</v>
+        <v>0.00617747390252969</v>
       </c>
     </row>
     <row r="12">
@@ -572,13 +566,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>0.796274310450983</v>
+        <v>0.849611800070102</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000000141536439391122</v>
+        <v>0.00000518906236508181</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00000165690944728446</v>
+        <v>0.0000155671870952454</v>
       </c>
     </row>
     <row r="13">
@@ -586,13 +580,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>0.907731786833182</v>
+        <v>0.780501386444024</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00453014752852178</v>
+        <v>0.00000203891715599458</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00592403907575925</v>
+        <v>0.0000101945857799729</v>
       </c>
     </row>
     <row r="14">
@@ -600,41 +594,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>0.849611800070102</v>
+        <v>0.742121459040302</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00000518906236508181</v>
+        <v>0.000000194930523209937</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0000176428120412782</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.780501386444024</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.00000203891715599458</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.0000115538638839693</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.742121459040302</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.000000194930523209937</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.00000165690944728446</v>
+        <v>0.00000146197892407453</v>
       </c>
     </row>
   </sheetData>
